--- a/data_year/zb/建筑业/建设工程监理企业和人员数/企业单位数.xlsx
+++ b/data_year/zb/建筑业/建设工程监理企业和人员数/企业单位数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,99 +523,167 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>24</v>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="n">
+        <v>51</v>
+      </c>
+      <c r="F2" t="n">
+        <v>132</v>
+      </c>
+      <c r="G2" t="n">
+        <v>341</v>
+      </c>
       <c r="H2" t="n">
-        <v>5927</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
+        <v>6106</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5112</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>63</v>
+      </c>
+      <c r="L2" t="n">
+        <v>9</v>
+      </c>
+      <c r="M2" t="n">
+        <v>170</v>
+      </c>
+      <c r="N2" t="n">
+        <v>28</v>
+      </c>
+      <c r="O2" t="n">
+        <v>57</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>13</v>
+      </c>
+      <c r="R2" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" t="n">
+        <v>52</v>
+      </c>
+      <c r="F3" t="n">
+        <v>134</v>
+      </c>
+      <c r="G3" t="n">
+        <v>376</v>
+      </c>
       <c r="H3" t="n">
-        <v>6170</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
+        <v>6512</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5398</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>76</v>
+      </c>
+      <c r="L3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M3" t="n">
+        <v>195</v>
+      </c>
+      <c r="N3" t="n">
+        <v>31</v>
+      </c>
+      <c r="O3" t="n">
+        <v>83</v>
+      </c>
+      <c r="P3" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>15</v>
+      </c>
+      <c r="R3" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E4" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F4" t="n">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G4" t="n">
-        <v>283</v>
+        <v>413</v>
       </c>
       <c r="H4" t="n">
-        <v>6043</v>
+        <v>6605</v>
       </c>
       <c r="I4" t="n">
-        <v>5116</v>
+        <v>5465</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="L4" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M4" t="n">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="N4" t="n">
-        <v>32</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="O4" t="n">
+        <v>89</v>
+      </c>
       <c r="P4" t="n">
         <v>6</v>
       </c>
@@ -623,178 +691,146 @@
         <v>15</v>
       </c>
       <c r="R4" t="n">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>30</v>
-      </c>
-      <c r="D5" t="n">
-        <v>41</v>
-      </c>
-      <c r="E5" t="n">
-        <v>57</v>
-      </c>
-      <c r="F5" t="n">
-        <v>131</v>
-      </c>
-      <c r="G5" t="n">
-        <v>305</v>
-      </c>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>6080</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5103</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>75</v>
-      </c>
-      <c r="L5" t="n">
-        <v>15</v>
-      </c>
-      <c r="M5" t="n">
-        <v>162</v>
-      </c>
-      <c r="N5" t="n">
-        <v>35</v>
-      </c>
-      <c r="O5" t="n">
-        <v>17</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>17</v>
-      </c>
-      <c r="R5" t="n">
-        <v>56</v>
-      </c>
+        <v>6820</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E6" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F6" t="n">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="G6" t="n">
-        <v>295</v>
+        <v>503</v>
       </c>
       <c r="H6" t="n">
-        <v>5475</v>
+        <v>7279</v>
       </c>
       <c r="I6" t="n">
-        <v>4584</v>
+        <v>5941</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="L6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M6" t="n">
-        <v>161</v>
+        <v>249</v>
       </c>
       <c r="N6" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="O6" t="n">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="P6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R6" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F7" t="n">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G7" t="n">
-        <v>341</v>
+        <v>483</v>
       </c>
       <c r="H7" t="n">
-        <v>6106</v>
+        <v>7433</v>
       </c>
       <c r="I7" t="n">
-        <v>5112</v>
+        <v>6121</v>
       </c>
       <c r="J7" t="n">
         <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="L7" t="n">
         <v>9</v>
       </c>
       <c r="M7" t="n">
-        <v>170</v>
+        <v>277</v>
       </c>
       <c r="N7" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O7" t="n">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R7" t="n">
         <v>54</v>
@@ -803,549 +839,349 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" t="n">
         <v>20</v>
       </c>
       <c r="E8" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="F8" t="n">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="G8" t="n">
-        <v>376</v>
+        <v>516</v>
       </c>
       <c r="H8" t="n">
-        <v>6512</v>
+        <v>7483</v>
       </c>
       <c r="I8" t="n">
-        <v>5398</v>
+        <v>6109</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="K8" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M8" t="n">
-        <v>195</v>
+        <v>293</v>
       </c>
       <c r="N8" t="n">
         <v>31</v>
       </c>
       <c r="O8" t="n">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="P8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R8" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
+        <v>17</v>
+      </c>
+      <c r="E9" t="n">
         <v>19</v>
       </c>
-      <c r="E9" t="n">
-        <v>47</v>
-      </c>
       <c r="F9" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G9" t="n">
-        <v>413</v>
+        <v>616</v>
       </c>
       <c r="H9" t="n">
-        <v>6605</v>
+        <v>7945</v>
       </c>
       <c r="I9" t="n">
-        <v>5465</v>
+        <v>6394</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="L9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M9" t="n">
-        <v>209</v>
+        <v>341</v>
       </c>
       <c r="N9" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O9" t="n">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="P9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q9" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="R9" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="n">
+        <v>39</v>
+      </c>
+      <c r="D10" t="n">
+        <v>16</v>
+      </c>
+      <c r="E10" t="n">
+        <v>22</v>
+      </c>
+      <c r="F10" t="n">
+        <v>137</v>
+      </c>
+      <c r="G10" t="n">
+        <v>729</v>
+      </c>
       <c r="H10" t="n">
-        <v>6820</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
+        <v>8393</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6610</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>111</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>376</v>
+      </c>
+      <c r="N10" t="n">
+        <v>39</v>
+      </c>
+      <c r="O10" t="n">
+        <v>191</v>
+      </c>
+      <c r="P10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>47</v>
+      </c>
+      <c r="R10" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D11" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E11" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F11" t="n">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="G11" t="n">
-        <v>503</v>
+        <v>783</v>
       </c>
       <c r="H11" t="n">
-        <v>7279</v>
+        <v>8469</v>
       </c>
       <c r="I11" t="n">
-        <v>5941</v>
+        <v>6572</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="L11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M11" t="n">
-        <v>249</v>
+        <v>390</v>
       </c>
       <c r="N11" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O11" t="n">
-        <v>116</v>
+        <v>210</v>
       </c>
       <c r="P11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q11" t="n">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="R11" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="D12" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E12" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F12" t="n">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G12" t="n">
-        <v>483</v>
+        <v>1008</v>
       </c>
       <c r="H12" t="n">
-        <v>7433</v>
+        <v>9900</v>
       </c>
       <c r="I12" t="n">
-        <v>6121</v>
+        <v>7658</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K12" t="n">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="L12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M12" t="n">
-        <v>277</v>
+        <v>415</v>
       </c>
       <c r="N12" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O12" t="n">
-        <v>127</v>
+        <v>246</v>
       </c>
       <c r="P12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q12" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="R12" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E13" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F13" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G13" t="n">
-        <v>516</v>
+        <v>1460</v>
       </c>
       <c r="H13" t="n">
-        <v>7483</v>
+        <v>12407</v>
       </c>
       <c r="I13" t="n">
-        <v>6109</v>
+        <v>9571</v>
       </c>
       <c r="J13" t="n">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="K13" t="n">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="L13" t="n">
         <v>9</v>
       </c>
       <c r="M13" t="n">
-        <v>293</v>
+        <v>483</v>
       </c>
       <c r="N13" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="O13" t="n">
-        <v>3</v>
+        <v>283</v>
       </c>
       <c r="P13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q13" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="R13" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>28</v>
-      </c>
-      <c r="D14" t="n">
-        <v>17</v>
-      </c>
-      <c r="E14" t="n">
-        <v>19</v>
-      </c>
-      <c r="F14" t="n">
-        <v>140</v>
-      </c>
-      <c r="G14" t="n">
-        <v>616</v>
-      </c>
-      <c r="H14" t="n">
-        <v>7945</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6394</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>89</v>
-      </c>
-      <c r="L14" t="n">
-        <v>9</v>
-      </c>
-      <c r="M14" t="n">
-        <v>341</v>
-      </c>
-      <c r="N14" t="n">
-        <v>33</v>
-      </c>
-      <c r="O14" t="n">
-        <v>166</v>
-      </c>
-      <c r="P14" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>29</v>
-      </c>
-      <c r="R14" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>10</v>
-      </c>
-      <c r="C15" t="n">
-        <v>39</v>
-      </c>
-      <c r="D15" t="n">
-        <v>16</v>
-      </c>
-      <c r="E15" t="n">
-        <v>22</v>
-      </c>
-      <c r="F15" t="n">
-        <v>137</v>
-      </c>
-      <c r="G15" t="n">
-        <v>729</v>
-      </c>
-      <c r="H15" t="n">
-        <v>8393</v>
-      </c>
-      <c r="I15" t="n">
-        <v>6610</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>111</v>
-      </c>
-      <c r="L15" t="n">
-        <v>6</v>
-      </c>
-      <c r="M15" t="n">
-        <v>376</v>
-      </c>
-      <c r="N15" t="n">
-        <v>39</v>
-      </c>
-      <c r="O15" t="n">
-        <v>191</v>
-      </c>
-      <c r="P15" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>47</v>
-      </c>
-      <c r="R15" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>63</v>
-      </c>
-      <c r="D16" t="n">
-        <v>17</v>
-      </c>
-      <c r="E16" t="n">
-        <v>24</v>
-      </c>
-      <c r="F16" t="n">
-        <v>138</v>
-      </c>
-      <c r="G16" t="n">
-        <v>783</v>
-      </c>
-      <c r="H16" t="n">
-        <v>8469</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6572</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>105</v>
-      </c>
-      <c r="L16" t="n">
-        <v>8</v>
-      </c>
-      <c r="M16" t="n">
-        <v>390</v>
-      </c>
-      <c r="N16" t="n">
-        <v>43</v>
-      </c>
-      <c r="O16" t="n">
-        <v>210</v>
-      </c>
-      <c r="P16" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>49</v>
-      </c>
-      <c r="R16" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>85</v>
-      </c>
-      <c r="D17" t="n">
-        <v>18</v>
-      </c>
-      <c r="E17" t="n">
-        <v>25</v>
-      </c>
-      <c r="F17" t="n">
-        <v>151</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1008</v>
-      </c>
-      <c r="H17" t="n">
-        <v>9900</v>
-      </c>
-      <c r="I17" t="n">
-        <v>7658</v>
-      </c>
-      <c r="J17" t="n">
-        <v>10</v>
-      </c>
-      <c r="K17" t="n">
-        <v>122</v>
-      </c>
-      <c r="L17" t="n">
-        <v>7</v>
-      </c>
-      <c r="M17" t="n">
-        <v>415</v>
-      </c>
-      <c r="N17" t="n">
-        <v>37</v>
-      </c>
-      <c r="O17" t="n">
-        <v>246</v>
-      </c>
-      <c r="P17" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>50</v>
-      </c>
-      <c r="R17" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
